--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vtn-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vtn-Itgav.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H2">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I2">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J2">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>117.975217939272</v>
+        <v>15.89711301056834</v>
       </c>
       <c r="R2">
-        <v>1061.776961453448</v>
+        <v>143.074017095115</v>
       </c>
       <c r="S2">
-        <v>0.02046911422792384</v>
+        <v>0.001689011033371737</v>
       </c>
       <c r="T2">
-        <v>0.02046911422792384</v>
+        <v>0.001689011033371736</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H3">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I3">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J3">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>289.812682725752</v>
+        <v>237.0596039534574</v>
       </c>
       <c r="R3">
-        <v>2608.314144531769</v>
+        <v>2133.536435581117</v>
       </c>
       <c r="S3">
-        <v>0.05028351725926106</v>
+        <v>0.02518672958907331</v>
       </c>
       <c r="T3">
-        <v>0.05028351725926106</v>
+        <v>0.0251867295890733</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H4">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I4">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J4">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>148.580053677522</v>
+        <v>89.98603752218501</v>
       </c>
       <c r="R4">
-        <v>1337.220483097698</v>
+        <v>809.874337699665</v>
       </c>
       <c r="S4">
-        <v>0.02577916060542283</v>
+        <v>0.009560692568728232</v>
       </c>
       <c r="T4">
-        <v>0.02577916060542283</v>
+        <v>0.00956069256872823</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H5">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I5">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J5">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>289.505029631788</v>
+        <v>47.69176760796723</v>
       </c>
       <c r="R5">
-        <v>2605.545266686092</v>
+        <v>429.2259084717051</v>
       </c>
       <c r="S5">
-        <v>0.05023013836805896</v>
+        <v>0.005067078634800348</v>
       </c>
       <c r="T5">
-        <v>0.05023013836805896</v>
+        <v>0.005067078634800347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H6">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I6">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J6">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
-        <v>711.185202839597</v>
+        <v>711.1852028395971</v>
       </c>
       <c r="R6">
-        <v>6400.666825556372</v>
+        <v>6400.666825556374</v>
       </c>
       <c r="S6">
-        <v>0.1233931278823856</v>
+        <v>0.0755608677857573</v>
       </c>
       <c r="T6">
-        <v>0.1233931278823855</v>
+        <v>0.07556086778575727</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H7">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I7">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J7">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>364.607699769163</v>
+        <v>269.9605385340617</v>
       </c>
       <c r="R7">
-        <v>3281.469297922466</v>
+        <v>2429.644846806556</v>
       </c>
       <c r="S7">
-        <v>0.06326071513423484</v>
+        <v>0.02868233545649965</v>
       </c>
       <c r="T7">
-        <v>0.06326071513423484</v>
+        <v>0.02868233545649965</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H8">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I8">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J8">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>814.6582353247361</v>
+        <v>372.7082982836906</v>
       </c>
       <c r="R8">
-        <v>7331.924117922625</v>
+        <v>3354.374684553216</v>
       </c>
       <c r="S8">
-        <v>0.1413460620531724</v>
+        <v>0.03959891507419384</v>
       </c>
       <c r="T8">
-        <v>0.1413460620531725</v>
+        <v>0.03959891507419384</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H9">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I9">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J9">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>2001.253253082532</v>
+        <v>5557.869628438907</v>
       </c>
       <c r="R9">
-        <v>18011.27927774279</v>
+        <v>50020.82665595016</v>
       </c>
       <c r="S9">
-        <v>0.3472244607968156</v>
+        <v>0.5905036416508046</v>
       </c>
       <c r="T9">
-        <v>0.3472244607968156</v>
+        <v>0.5905036416508045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H10">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I10">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J10">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>1025.994835590736</v>
+        <v>2109.725387992752</v>
       </c>
       <c r="R10">
-        <v>9233.953520316625</v>
+        <v>18987.52849193477</v>
       </c>
       <c r="S10">
-        <v>0.178013703672725</v>
+        <v>0.224150728206771</v>
       </c>
       <c r="T10">
-        <v>0.178013703672725</v>
+        <v>0.224150728206771</v>
       </c>
     </row>
   </sheetData>
